--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://movingdot-my.sharepoint.com/personal/gabriel_blanco_movingdot_nl/Documents/Bureaublad/Projects/geodesy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{22BC68BB-F25F-4AA5-B1A1-E0C778DAD6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E53CE4-603D-4F17-8C62-E8C2BB5D1371}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{22BC68BB-F25F-4AA5-B1A1-E0C778DAD6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75C721EC-A140-47D3-87D7-FE3378690D47}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" activeTab="1" xr2:uid="{FF9A76A2-7AEA-4131-AD67-F7D4782A7090}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{FF9A76A2-7AEA-4131-AD67-F7D4782A7090}"/>
   </bookViews>
   <sheets>
     <sheet name="wpts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -124,15 +124,6 @@
   </si>
   <si>
     <t>To</t>
-  </si>
-  <si>
-    <t>ARP</t>
-  </si>
-  <si>
-    <t>59°39'07.00"N</t>
-  </si>
-  <si>
-    <t>017°55'07.00"E</t>
   </si>
 </sst>
 </file>
@@ -521,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC3868-1B7F-47CB-8C29-26E95A452691}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,15 +623,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -652,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8400B5E5-AE90-4849-8E45-10E10F16FF7F}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
